--- a/DevelopFit/src/main/webapp/WEB-INF/doc/DB추가/movieCdTitle.xlsx
+++ b/DevelopFit/src/main/webapp/WEB-INF/doc/DB추가/movieCdTitle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErYK\Desktop\Coding\팀 프로젝트\DB추가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D64D2C-E9FD-4096-BCA8-EEB0580F6B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273062B8-8BB2-4B77-B9A2-AC1478888BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
